--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,91</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,09</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>25,5</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,67</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>27,54</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,01</t>
+          <t>-7,36; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,05</t>
+          <t>1,27; 9,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 26,9</t>
+          <t>-9,49; 0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,21; 36,45</t>
+          <t>-9,46; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 31,78</t>
+          <t>-7,13; -0,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 34,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>23,23; 27,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,47; 23,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>24,32; 30,04</t>
+          <t>-1,95; 5,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-16,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,98; 6,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,16; 62,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 2,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,93; 9,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,45; -2,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,41; 22,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,1</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,08</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,42</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>23,7</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,61</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,91</t>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,77</t>
+          <t>-5,77; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,58</t>
+          <t>-10,97; -0,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,47</t>
+          <t>-8,27; -0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,06; 33,0</t>
+          <t>-2,57; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 29,16</t>
+          <t>-5,64; -0,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,1; 34,08</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>21,94; 25,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 22,45</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>14,28; 24,2</t>
+          <t>-9,54; 0,82</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-11,78%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,85; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,35; -1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,07; -0,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 18,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,69; -1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-39,88; 3,42</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,69</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,22</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,51</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,09</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,0</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>20,17</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>18,51</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,09</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,52</t>
+          <t>-4,56; 2,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,24</t>
+          <t>-1,63; 6,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,85</t>
+          <t>-6,93; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,14</t>
+          <t>-13,66; 7,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,29</t>
+          <t>-4,71; 1,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,88; 31,97</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>18,07; 22,49</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,39; 20,61</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 24,85</t>
+          <t>-6,96; 5,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,39; 23,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 51,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,39; 11,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,96; 28,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,82; 5,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-31,7; 25,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,54</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,89</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,87</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,44</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>21,02</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>25,95</t>
+          <t>2,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 20,61</t>
+          <t>-5,46; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,04</t>
+          <t>-2,52; 4,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,53</t>
+          <t>-6,83; 1,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,66; 31,31</t>
+          <t>-3,99; 7,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,0; 29,05</t>
+          <t>-5,08; 0,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,41; 35,3</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>21,56; 25,61</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>19,05; 22,88</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>22,76; 27,8</t>
+          <t>-1,03; 5,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,84; 8,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 30,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 5,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 28,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,68; 1,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-4,02; 24,87</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29,19</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,77</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>23,21</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>20,46</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>23,63</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>-3,75; -0,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>-3,54; 2,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>-5,66; -1,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>-5,24; 3,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>-4,16; -1,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>-2,99; 2,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -1,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 14,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,8; -4,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 12,49</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; -6,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,59; 10,84</t>
         </is>
       </c>
     </row>
@@ -1709,11 +1378,11 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
